--- a/Emotions-800980568.xlsx
+++ b/Emotions-800980568.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>Дата</t>
   </si>
@@ -169,6 +169,9 @@
     <t>17:28:02.929470</t>
   </si>
   <si>
+    <t>16:17:47.334148</t>
+  </si>
+  <si>
     <t>спокойствие</t>
   </si>
   <si>
@@ -284,6 +287,9 @@
   </si>
   <si>
     <t>Ььь</t>
+  </si>
+  <si>
+    <t>Секс</t>
   </si>
 </sst>
 </file>
@@ -645,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -676,10 +682,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -693,10 +699,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -710,10 +716,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -727,10 +733,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -744,10 +750,10 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -761,10 +767,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -778,10 +784,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -795,10 +801,10 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -812,10 +818,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -829,10 +835,10 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -846,10 +852,10 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -863,10 +869,10 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -880,10 +886,10 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -897,10 +903,10 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -914,10 +920,10 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -931,10 +937,10 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -948,10 +954,10 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -965,10 +971,10 @@
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -982,10 +988,10 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -999,10 +1005,10 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1016,10 +1022,10 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1033,10 +1039,10 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1050,10 +1056,10 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1067,10 +1073,10 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1084,10 +1090,10 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1101,10 +1107,10 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1118,10 +1124,10 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1135,10 +1141,10 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1152,10 +1158,10 @@
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1169,10 +1175,10 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1186,10 +1192,10 @@
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1203,10 +1209,10 @@
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1220,10 +1226,10 @@
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1237,10 +1243,10 @@
         <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1254,10 +1260,10 @@
         <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1271,10 +1277,10 @@
         <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1288,10 +1294,10 @@
         <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1305,10 +1311,10 @@
         <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1322,10 +1328,10 @@
         <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1339,10 +1345,10 @@
         <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1356,10 +1362,10 @@
         <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1373,10 +1379,10 @@
         <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1390,10 +1396,10 @@
         <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1407,10 +1413,10 @@
         <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1424,10 +1430,10 @@
         <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1441,10 +1447,10 @@
         <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1458,10 +1464,27 @@
         <v>50</v>
       </c>
       <c r="D48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>44407</v>
+      </c>
+      <c r="C49" t="s">
         <v>51</v>
       </c>
-      <c r="E48" t="s">
-        <v>73</v>
+      <c r="D49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Emotions-800980568.xlsx
+++ b/Emotions-800980568.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="113">
   <si>
     <t>Дата</t>
   </si>
@@ -28,148 +28,196 @@
     <t>Причина</t>
   </si>
   <si>
-    <t>10:08:00.672332</t>
-  </si>
-  <si>
-    <t>11:33:05.107530</t>
-  </si>
-  <si>
-    <t>14:00:40.758314</t>
-  </si>
-  <si>
-    <t>17:00:55.656700</t>
-  </si>
-  <si>
-    <t>08:24:15.612251</t>
-  </si>
-  <si>
-    <t>11:24:00.643171</t>
-  </si>
-  <si>
-    <t>14:25:57.045884</t>
-  </si>
-  <si>
-    <t>17:00:43.434776</t>
-  </si>
-  <si>
-    <t>08:37:02.337429</t>
-  </si>
-  <si>
-    <t>11:01:10.605314</t>
-  </si>
-  <si>
-    <t>14:00:37.771685</t>
-  </si>
-  <si>
-    <t>08:18:53.017532</t>
-  </si>
-  <si>
-    <t>11:01:36.698745</t>
-  </si>
-  <si>
-    <t>14:01:52.804453</t>
-  </si>
-  <si>
-    <t>17:41:57.019021</t>
-  </si>
-  <si>
-    <t>20:23:21.060834</t>
-  </si>
-  <si>
-    <t>08:01:17.666956</t>
-  </si>
-  <si>
-    <t>11:56:36.501258</t>
-  </si>
-  <si>
-    <t>14:28:23.395631</t>
-  </si>
-  <si>
-    <t>17:37:14.848223</t>
-  </si>
-  <si>
-    <t>08:11:22.645139</t>
-  </si>
-  <si>
-    <t>11:46:27.828110</t>
-  </si>
-  <si>
-    <t>14:00:45.940448</t>
-  </si>
-  <si>
-    <t>17:03:12.371112</t>
-  </si>
-  <si>
-    <t>08:39:27.476158</t>
-  </si>
-  <si>
-    <t>14:13:09.844048</t>
-  </si>
-  <si>
-    <t>17:00:52.118442</t>
-  </si>
-  <si>
-    <t>08:51:21.201036</t>
-  </si>
-  <si>
-    <t>11:31:36.701232</t>
-  </si>
-  <si>
-    <t>15:17:44.963242</t>
-  </si>
-  <si>
-    <t>17:51:59.404904</t>
-  </si>
-  <si>
-    <t>08:01:25.661798</t>
-  </si>
-  <si>
-    <t>14:13:51.912350</t>
-  </si>
-  <si>
-    <t>17:01:17.919116</t>
-  </si>
-  <si>
-    <t>08:49:46.897283</t>
-  </si>
-  <si>
-    <t>11:01:30.042629</t>
-  </si>
-  <si>
-    <t>15:07:18.978631</t>
-  </si>
-  <si>
-    <t>17:05:57.934243</t>
-  </si>
-  <si>
-    <t>08:22:23.452688</t>
-  </si>
-  <si>
-    <t>15:04:02.232454</t>
-  </si>
-  <si>
-    <t>17:39:31.195057</t>
-  </si>
-  <si>
-    <t>08:37:14.429583</t>
-  </si>
-  <si>
-    <t>11:01:19.688227</t>
-  </si>
-  <si>
-    <t>14:35:52.639035</t>
-  </si>
-  <si>
-    <t>17:01:02.172397</t>
-  </si>
-  <si>
-    <t>08:38:48.657211</t>
-  </si>
-  <si>
-    <t>17:28:02.929470</t>
-  </si>
-  <si>
-    <t>16:17:47.334148</t>
+    <t>08:51:39.046395</t>
+  </si>
+  <si>
+    <t>11:01:19.660815</t>
+  </si>
+  <si>
+    <t>14:20:01.326770</t>
+  </si>
+  <si>
+    <t>17:00:52.301580</t>
+  </si>
+  <si>
+    <t>08:00:56.195252</t>
+  </si>
+  <si>
+    <t>08:31:30.723401</t>
+  </si>
+  <si>
+    <t>11:59:44.574019</t>
+  </si>
+  <si>
+    <t>11:08:09.694265</t>
+  </si>
+  <si>
+    <t>14:06:02.100475</t>
+  </si>
+  <si>
+    <t>17:00:37.103780</t>
+  </si>
+  <si>
+    <t>08:31:12.569234</t>
+  </si>
+  <si>
+    <t>14:24:11.218449</t>
+  </si>
+  <si>
+    <t>17:01:18.697826</t>
+  </si>
+  <si>
+    <t>09:32:41.104969</t>
+  </si>
+  <si>
+    <t>11:00:41.458013</t>
+  </si>
+  <si>
+    <t>14:14:21.144290</t>
+  </si>
+  <si>
+    <t>17:01:33.154991</t>
+  </si>
+  <si>
+    <t>08:04:13.068998</t>
+  </si>
+  <si>
+    <t>11:15:33.008575</t>
+  </si>
+  <si>
+    <t>15:18:37.578084</t>
+  </si>
+  <si>
+    <t>17:01:19.495053</t>
+  </si>
+  <si>
+    <t>08:01:29.276838</t>
+  </si>
+  <si>
+    <t>14:00:57.388658</t>
+  </si>
+  <si>
+    <t>18:23:34.745722</t>
+  </si>
+  <si>
+    <t>08:02:56.988104</t>
+  </si>
+  <si>
+    <t>11:00:34.946916</t>
+  </si>
+  <si>
+    <t>17:15:40.202370</t>
+  </si>
+  <si>
+    <t>10:21:03.547839</t>
+  </si>
+  <si>
+    <t>14:51:10.271644</t>
+  </si>
+  <si>
+    <t>17:01:02.393800</t>
+  </si>
+  <si>
+    <t>11:44:03.201674</t>
+  </si>
+  <si>
+    <t>14:25:37.654752</t>
+  </si>
+  <si>
+    <t>17:40:50.708468</t>
+  </si>
+  <si>
+    <t>11:01:22.921546</t>
+  </si>
+  <si>
+    <t>14:00:48.648615</t>
+  </si>
+  <si>
+    <t>17:01:32.512064</t>
+  </si>
+  <si>
+    <t>08:01:39.865771</t>
+  </si>
+  <si>
+    <t>11:36:04.650898</t>
+  </si>
+  <si>
+    <t>14:12:01.474685</t>
+  </si>
+  <si>
+    <t>17:00:46.549758</t>
+  </si>
+  <si>
+    <t>08:01:16.965293</t>
+  </si>
+  <si>
+    <t>11:09:57.965299</t>
+  </si>
+  <si>
+    <t>14:04:27.191102</t>
+  </si>
+  <si>
+    <t>17:01:10.269464</t>
+  </si>
+  <si>
+    <t>08:30:53.648173</t>
+  </si>
+  <si>
+    <t>14:16:15.042839</t>
+  </si>
+  <si>
+    <t>17:00:44.474895</t>
+  </si>
+  <si>
+    <t>11:01:02.725854</t>
+  </si>
+  <si>
+    <t>14:31:33.334909</t>
+  </si>
+  <si>
+    <t>08:01:36.543828</t>
+  </si>
+  <si>
+    <t>11:02:33.071743</t>
+  </si>
+  <si>
+    <t>15:08:09.777156</t>
+  </si>
+  <si>
+    <t>08:14:45.877522</t>
+  </si>
+  <si>
+    <t>14:16:24.015014</t>
+  </si>
+  <si>
+    <t>14:10:00.145196</t>
+  </si>
+  <si>
+    <t>14:47:33.066074</t>
+  </si>
+  <si>
+    <t>11:01:08.066307</t>
+  </si>
+  <si>
+    <t>15:12:21.588922</t>
+  </si>
+  <si>
+    <t>09:07:37.598918</t>
+  </si>
+  <si>
+    <t>11:33:15.151573</t>
+  </si>
+  <si>
+    <t>16:22:59.942413</t>
+  </si>
+  <si>
+    <t>09:02:36.682405</t>
+  </si>
+  <si>
+    <t>14:00:56.731992</t>
+  </si>
+  <si>
+    <t>15:46:49.659701</t>
   </si>
   <si>
     <t>спокойствие</t>
@@ -178,118 +226,133 @@
     <t>радость</t>
   </si>
   <si>
-    <t>ааааа</t>
+    <t>себя</t>
   </si>
   <si>
     <t>у</t>
   </si>
   <si>
-    <t>о</t>
-  </si>
-  <si>
-    <t>Ееро</t>
-  </si>
-  <si>
-    <t>О</t>
-  </si>
-  <si>
-    <t>Рио</t>
-  </si>
-  <si>
-    <t>Риит</t>
-  </si>
-  <si>
-    <t>Про л</t>
-  </si>
-  <si>
-    <t>Ооь</t>
+    <t>Рро</t>
   </si>
   <si>
     <t>Роо</t>
   </si>
   <si>
-    <t>Рро</t>
+    <t>Мит</t>
+  </si>
+  <si>
+    <t>Ооо</t>
+  </si>
+  <si>
+    <t>Рр</t>
+  </si>
+  <si>
+    <t>Ии</t>
+  </si>
+  <si>
+    <t>Ррол</t>
+  </si>
+  <si>
+    <t>И то</t>
+  </si>
+  <si>
+    <t>Оть</t>
+  </si>
+  <si>
+    <t>Р по</t>
+  </si>
+  <si>
+    <t>Нри</t>
+  </si>
+  <si>
+    <t>Секс</t>
+  </si>
+  <si>
+    <t>Ртть</t>
+  </si>
+  <si>
+    <t>Рррт</t>
+  </si>
+  <si>
+    <t>Иду домой</t>
+  </si>
+  <si>
+    <t>Утро</t>
+  </si>
+  <si>
+    <t>У</t>
+  </si>
+  <si>
+    <t>Ура</t>
+  </si>
+  <si>
+    <t>Рит</t>
+  </si>
+  <si>
+    <t>рлор</t>
+  </si>
+  <si>
+    <t>Оол</t>
+  </si>
+  <si>
+    <t>Тт</t>
+  </si>
+  <si>
+    <t>Ттл</t>
+  </si>
+  <si>
+    <t>Всегда</t>
+  </si>
+  <si>
+    <t>Ио</t>
+  </si>
+  <si>
+    <t>Пришёл домой</t>
+  </si>
+  <si>
+    <t>Пир</t>
+  </si>
+  <si>
+    <t>Ллл</t>
+  </si>
+  <si>
+    <t>Начало</t>
+  </si>
+  <si>
+    <t>Дома</t>
+  </si>
+  <si>
+    <t>Иит</t>
+  </si>
+  <si>
+    <t>Ррл</t>
+  </si>
+  <si>
+    <t>Оо</t>
+  </si>
+  <si>
+    <t>Ппо</t>
+  </si>
+  <si>
+    <t>Рол</t>
   </si>
   <si>
     <t>Р</t>
   </si>
   <si>
-    <t>Ррт</t>
-  </si>
-  <si>
-    <t>Иии</t>
-  </si>
-  <si>
-    <t>авыава</t>
-  </si>
-  <si>
-    <t>hhh</t>
-  </si>
-  <si>
-    <t>Я чувствую</t>
-  </si>
-  <si>
-    <t>Оо</t>
-  </si>
-  <si>
-    <t>Нро</t>
-  </si>
-  <si>
-    <t>Ттл</t>
-  </si>
-  <si>
-    <t>Рр</t>
-  </si>
-  <si>
-    <t>Ит</t>
-  </si>
-  <si>
-    <t>Тоол</t>
-  </si>
-  <si>
-    <t>Ии</t>
-  </si>
-  <si>
-    <t>Отт</t>
-  </si>
-  <si>
-    <t>Прр</t>
-  </si>
-  <si>
-    <t>Ми</t>
-  </si>
-  <si>
-    <t>Ллл</t>
-  </si>
-  <si>
-    <t>Ррро</t>
-  </si>
-  <si>
-    <t>Иио</t>
-  </si>
-  <si>
-    <t>Мир</t>
-  </si>
-  <si>
-    <t>Роош</t>
-  </si>
-  <si>
-    <t>Пришёл домой!</t>
-  </si>
-  <si>
-    <t>Ррр</t>
-  </si>
-  <si>
-    <t>Оол</t>
-  </si>
-  <si>
-    <t>Оть</t>
-  </si>
-  <si>
-    <t>Ььь</t>
-  </si>
-  <si>
-    <t>Секс</t>
+    <t>Иро</t>
+  </si>
+  <si>
+    <t>О о д</t>
+  </si>
+  <si>
+    <t>Ри</t>
+  </si>
+  <si>
+    <t>Ири</t>
+  </si>
+  <si>
+    <t>Ирр</t>
   </si>
 </sst>
 </file>
@@ -651,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -676,16 +739,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>44382</v>
+        <v>44410</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -693,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44382</v>
+        <v>44410</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -710,16 +773,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>44382</v>
+        <v>44410</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -727,16 +790,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>44382</v>
+        <v>44410</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -744,16 +807,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>44383</v>
+        <v>44438</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -761,16 +824,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>44383</v>
+        <v>44411</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -778,16 +841,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>44383</v>
+        <v>44412</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -795,16 +858,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>44383</v>
+        <v>44411</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -812,16 +875,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>44384</v>
+        <v>44411</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -829,16 +892,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>44384</v>
+        <v>44411</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -846,16 +909,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>44384</v>
+        <v>44412</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -863,16 +926,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>44385</v>
+        <v>44412</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -880,16 +943,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>44385</v>
+        <v>44412</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -897,16 +960,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>44385</v>
+        <v>44413</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -914,16 +977,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>44385</v>
+        <v>44413</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -931,16 +994,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>44386</v>
+        <v>44413</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -948,16 +1011,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>44387</v>
+        <v>44413</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -965,16 +1028,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>44387</v>
+        <v>44414</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -982,16 +1045,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>44387</v>
+        <v>44414</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -999,16 +1062,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>44387</v>
+        <v>44414</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1016,16 +1079,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>44388</v>
+        <v>44414</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1033,16 +1096,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>44388</v>
+        <v>44415</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1050,16 +1113,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>44388</v>
+        <v>44415</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1067,16 +1130,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>44388</v>
+        <v>44415</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1084,16 +1147,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>44389</v>
+        <v>44416</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1101,16 +1164,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>44389</v>
+        <v>44416</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1118,16 +1181,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>44389</v>
+        <v>44416</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1135,16 +1198,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>44390</v>
+        <v>44417</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1152,16 +1215,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>44390</v>
+        <v>44417</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1169,16 +1232,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>44390</v>
+        <v>44417</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1186,16 +1249,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>44390</v>
+        <v>44418</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1203,16 +1266,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>44391</v>
+        <v>44418</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1220,16 +1283,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>44391</v>
+        <v>44418</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1237,16 +1300,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>44391</v>
+        <v>44419</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1254,16 +1317,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>44392</v>
+        <v>44419</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1271,13 +1334,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>44392</v>
+        <v>44419</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
         <v>83</v>
@@ -1288,16 +1351,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>44392</v>
+        <v>44420</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1305,16 +1368,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>44392</v>
+        <v>44420</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1322,16 +1385,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>44393</v>
+        <v>44420</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1339,16 +1402,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>44393</v>
+        <v>44420</v>
       </c>
       <c r="C41" t="s">
         <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1356,16 +1419,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>44393</v>
+        <v>44421</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1373,16 +1436,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>44394</v>
+        <v>44421</v>
       </c>
       <c r="C43" t="s">
         <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1390,16 +1453,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>44394</v>
+        <v>44421</v>
       </c>
       <c r="C44" t="s">
         <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1407,16 +1470,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>44394</v>
+        <v>44421</v>
       </c>
       <c r="C45" t="s">
         <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1424,16 +1487,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>44394</v>
+        <v>44422</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E46" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1441,16 +1504,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>44395</v>
+        <v>44422</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1458,16 +1521,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>44395</v>
+        <v>44422</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E48" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1475,16 +1538,288 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>44407</v>
+        <v>44423</v>
       </c>
       <c r="C49" t="s">
         <v>51</v>
       </c>
       <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44423</v>
+      </c>
+      <c r="C50" t="s">
         <v>52</v>
       </c>
-      <c r="E49" t="s">
-        <v>91</v>
+      <c r="D50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44433</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44433</v>
+      </c>
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44433</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <v>44434</v>
+      </c>
+      <c r="C54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <v>44435</v>
+      </c>
+      <c r="C55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44434</v>
+      </c>
+      <c r="C56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44437</v>
+      </c>
+      <c r="C57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44438</v>
+      </c>
+      <c r="C58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44439</v>
+      </c>
+      <c r="C59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2">
+        <v>44440</v>
+      </c>
+      <c r="C60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
+        <v>44440</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
+        <v>44440</v>
+      </c>
+      <c r="C62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2">
+        <v>44441</v>
+      </c>
+      <c r="C63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2">
+        <v>44441</v>
+      </c>
+      <c r="C64" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2">
+        <v>44446</v>
+      </c>
+      <c r="C65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Emotions-800980568.xlsx
+++ b/Emotions-800980568.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="117">
   <si>
     <t>Дата</t>
   </si>
@@ -220,6 +220,12 @@
     <t>15:46:49.659701</t>
   </si>
   <si>
+    <t>15:48:13.929252</t>
+  </si>
+  <si>
+    <t>07:01:04.698444</t>
+  </si>
+  <si>
     <t>спокойствие</t>
   </si>
   <si>
@@ -232,6 +238,9 @@
     <t>у</t>
   </si>
   <si>
+    <t>это</t>
+  </si>
+  <si>
     <t>Рро</t>
   </si>
   <si>
@@ -353,6 +362,9 @@
   </si>
   <si>
     <t>Ирр</t>
+  </si>
+  <si>
+    <t>чясмчяся</t>
   </si>
 </sst>
 </file>
@@ -714,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -745,10 +757,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -762,10 +774,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -779,10 +791,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -796,10 +808,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -813,10 +825,10 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -830,10 +842,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -847,10 +859,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -864,10 +876,10 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -881,10 +893,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -898,10 +910,10 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -915,10 +927,10 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -932,10 +944,10 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -949,10 +961,10 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -966,10 +978,10 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -983,10 +995,10 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1000,10 +1012,10 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1017,10 +1029,10 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1034,10 +1046,10 @@
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1051,10 +1063,10 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1068,10 +1080,10 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1085,10 +1097,10 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1102,10 +1114,10 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1119,10 +1131,10 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1136,10 +1148,10 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1153,10 +1165,10 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1170,10 +1182,10 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1187,10 +1199,10 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1204,10 +1216,10 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1221,10 +1233,10 @@
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1238,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1255,10 +1267,10 @@
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1272,10 +1284,10 @@
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1289,10 +1301,10 @@
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1306,10 +1318,10 @@
         <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1323,10 +1335,10 @@
         <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1340,10 +1352,10 @@
         <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1357,10 +1369,10 @@
         <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1374,10 +1386,10 @@
         <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1391,10 +1403,10 @@
         <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1408,10 +1420,10 @@
         <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1425,10 +1437,10 @@
         <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E42" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1442,10 +1454,10 @@
         <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E43" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1459,10 +1471,10 @@
         <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1476,10 +1488,10 @@
         <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1493,10 +1505,10 @@
         <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1510,10 +1522,10 @@
         <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E47" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1527,10 +1539,10 @@
         <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1544,10 +1556,10 @@
         <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1561,10 +1573,10 @@
         <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E50" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1578,10 +1590,10 @@
         <v>53</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1595,10 +1607,10 @@
         <v>54</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1612,10 +1624,10 @@
         <v>55</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E53" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1629,10 +1641,10 @@
         <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1646,10 +1658,10 @@
         <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E55" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1663,10 +1675,10 @@
         <v>58</v>
       </c>
       <c r="D56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1680,10 +1692,10 @@
         <v>59</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E57" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1697,10 +1709,10 @@
         <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E58" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1714,10 +1726,10 @@
         <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E59" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1731,10 +1743,10 @@
         <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E60" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1748,10 +1760,10 @@
         <v>63</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E61" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1765,10 +1777,10 @@
         <v>64</v>
       </c>
       <c r="D62" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E62" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1782,10 +1794,10 @@
         <v>65</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E63" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1799,10 +1811,10 @@
         <v>66</v>
       </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1816,10 +1828,44 @@
         <v>67</v>
       </c>
       <c r="D65" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
+        <v>44459</v>
+      </c>
+      <c r="C66" t="s">
         <v>68</v>
       </c>
-      <c r="E65" t="s">
-        <v>76</v>
+      <c r="D66" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2">
+        <v>44468</v>
+      </c>
+      <c r="C67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
